--- a/example_output.xlsx
+++ b/example_output.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,454 +436,1104 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Director</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Producer</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>DOP</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>File</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Roll</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Scene</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Slate</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Take</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Timecode In</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Timecode Out</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Scene Number</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Shot Number</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Usable</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>D:\BloodRedRoses\04_BRR-bts-1st-feb\videos\C0326.xlsx</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>00:00:00:00</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>00:08:58:02</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>A001x_0004.MP4</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>00:00:00:00</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>00:03:07:17</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>D:\BloodRedRoses\04_BRR-bts-1st-feb\videos\C0327.xlsx</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>00:08:58:02</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>00:13:40:08</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>A001x_0005.MP4</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>00:03:07:18</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>00:05:31:06</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>D:\BloodRedRoses\04_BRR-bts-1st-feb\videos\C0328.xlsx</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>00:13:40:08</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>00:16:07:17</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>A001x_0006.MP4</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>00:05:31:07</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>00:08:02:12</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>D:\BloodRedRoses\04_BRR-bts-1st-feb\videos\C0329.xlsx</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>00:16:07:17</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>00:19:10:14</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>A001x_0007.MP4</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>00:08:02:13</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>00:10:56:19</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>D:\BloodRedRoses\04_BRR-bts-1st-feb\videos\C0330.xlsx</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>00:19:10:14</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>00:19:50:10</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>A001x_0008.MP4</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>00:10:56:20</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>00:14:23:05</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>D:\BloodRedRoses\04_BRR-bts-1st-feb\videos\C0331.xlsx</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>00:19:50:10</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>00:21:08:16</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>A001x_0009.MP4</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>00:14:23:06</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>00:16:00:05</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>D:\BloodRedRoses\04_BRR-bts-1st-feb\videos\C0332.xlsx</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>00:21:08:16</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>00:22:51:09</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>A001x_0010.MP4</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>00:16:00:06</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>00:19:03:03</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>D:\BloodRedRoses\04_BRR-bts-1st-feb\videos\C0333.xlsx</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>00:22:51:09</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>00:23:57:15</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>A001x_0011.MP4</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>00:19:03:04</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>00:19:08:23</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>D:\BloodRedRoses\04_BRR-bts-1st-feb\videos\C0334.xlsx</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>00:23:57:15</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>00:24:31:17</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>A001x_0012.MP4</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>00:19:08:24</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>00:19:56:00</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>D:\BloodRedRoses\04_BRR-bts-1st-feb\videos\C0335.xlsx</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>00:24:31:17</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>00:25:48:00</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>A001x_0013.MP4</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>00:19:56:01</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>00:22:45:12</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>D:\BloodRedRoses\04_BRR-bts-1st-feb\videos\C0336.xlsx</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>00:25:48:00</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>00:25:55:17</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>A001x_0014.MP4</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>00:22:45:13</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>00:25:44:14</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>D:\BloodRedRoses\04_BRR-bts-1st-feb\videos\C0337.xlsx</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>00:25:55:17</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>00:27:19:17</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>A001x_0015.MP4</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>00:25:44:15</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>00:26:16:07</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>D:\BloodRedRoses\04_BRR-bts-1st-feb\videos\C0338.xlsx</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>00:27:19:17</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>00:28:21:03</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>A001x_0016.MP4</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>00:26:16:08</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>00:26:48:12</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>D:\BloodRedRoses\04_BRR-bts-1st-feb\videos\C0339.xlsx</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>00:28:21:03</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>00:28:54:06</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>A001x_0017.MP4</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>00:26:48:13</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>00:27:23:14</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>D:\BloodRedRoses\04_BRR-bts-1st-feb\videos\C0340.xlsx</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>00:28:54:06</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>00:29:29:19</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>A001x_0018.MP4</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>00:27:23:15</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>00:28:24:02</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>D:\BloodRedRoses\04_BRR-bts-1st-feb\videos\C0341.xlsx</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>00:29:29:19</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>00:30:07:05</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>A001x_0019.MP4</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>00:28:24:03</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>00:30:17:10</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>D:\BloodRedRoses\04_BRR-bts-1st-feb\videos\C0342.xlsx</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>00:30:07:05</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>00:30:38:10</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>A001x_0020.MP4</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>00:30:17:11</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>00:32:22:06</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>D:\BloodRedRoses\04_BRR-bts-1st-feb\videos\C0343.xlsx</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>00:30:38:10</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>00:30:52:08</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>A001x_0021.MP4</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>00:32:22:07</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>00:34:38:03</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>D:\BloodRedRoses\04_BRR-bts-1st-feb\videos\C0344.xlsx</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>00:30:52:08</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>00:31:00:00</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>A001x_0022.MP4</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>00:34:38:04</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>00:34:41:01</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>D:\BloodRedRoses\04_BRR-bts-1st-feb\videos\C0345.xlsx</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>00:31:00:00</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>00:31:49:11</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>A001x_0023.MP4</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>00:34:41:02</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>00:34:49:06</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>D:\BloodRedRoses\04_BRR-bts-1st-feb\videos\C0346.xlsx</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>00:31:49:11</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>00:32:15:09</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>A001x_0024.MP4</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>00:34:49:07</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>00:36:20:12</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>A001x_0025.MP4</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>00:36:20:13</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>00:36:39:18</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>A001x_0026.MP4</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>00:36:39:19</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>00:36:50:08</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>A001x_0027.MP4</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>00:36:50:09</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>00:37:05:06</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>A001x_0028.MP4</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>00:37:05:07</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>00:37:14:22</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>A001x_0029.MP4</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>00:37:14:23</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>00:37:25:12</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>A001x_0030.MP4</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>00:37:25:13</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>00:37:45:17</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>A001x_0031.MP4</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>00:37:45:18</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>00:38:11:16</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>A001x_0032.MP4</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>00:38:11:17</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>00:39:39:13</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr"/>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>A001x_0033.MP4</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>00:39:39:14</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>00:40:20:09</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>A001x_0034.MP4</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>00:40:20:10</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>00:42:12:06</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr"/>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>A001x_0035.MP4</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>00:42:12:07</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>00:45:39:04</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr"/>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>A001x_0036.MP4</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>00:45:39:05</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>00:46:50:18</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr"/>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>A001x_0037.MP4</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>00:46:50:19</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>00:47:19:02</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr"/>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>A001x_0038.MP4</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>00:47:19:03</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>00:47:32:02</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr"/>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>A001x_0039.MP4</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>00:47:32:03</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>00:48:09:02</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>A001x_0040.MP4</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>00:48:09:03</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>00:49:34:02</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr"/>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>A001x_0041.MP4</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>00:49:34:03</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>00:50:24:13</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr"/>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>A001x_0042.MP4</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>00:50:24:14</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>00:51:10:04</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr"/>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>A001x_0043.MP4</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>00:51:10:05</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>00:52:29:10</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
